--- a/DatosInvestigacion.xlsx
+++ b/DatosInvestigacion.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H751"/>
+  <dimension ref="A1:L751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,26 @@
           <t>REFERENCIAS</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>AUTHOR KEYWORDS</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>KEYWORDS PLUS</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CATEGORIE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>RESEARCH AREAS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/DatosInvestigacion.xlsx
+++ b/DatosInvestigacion.xlsx
@@ -549,6 +549,21 @@
           <t>52</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Attack graphsAttack treesDynamic networksGraphical security modelsSecurity metricsSecurity assessmentTemporal graph</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>METRICSGENERATION</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -591,6 +606,21 @@
           <t>32</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Business processsecurity patternsfeature modelconstraint programmingoptimization</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>RISKVARIABILITY</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -633,6 +663,21 @@
           <t>56</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Co-Ti oxidesinteractionN2O decompositionsurface Co3+ species</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NANOCRYSTALLINE COBALT OXIDENITROUS-OXIDELOW-TEMPERATURESUPERIOR CATALYSTHIGH-PERFORMANCESPINEL CATALYSTTOTAL OXIDATIONCO3O4 CATALYSTACTIVE-SITESMETAL-OXIDES</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -675,6 +720,21 @@
           <t>59</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Securityelectronic personal informationprivacyhealth information</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -759,6 +819,21 @@
           <t>25</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Ti-6Al-4VPure titaniumCoatingLaser claddingPhase constitutionWear resistance</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PARAMETERSEVOLUTIONPOWDERBETATI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -801,6 +876,21 @@
           <t>49</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CALPHAD methodphase transitionpromotion effectTi alloysZr addition</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>MECHANICAL-PROPERTIESISOTHERMAL SECTIONTITANIUM-ALLOYSTERNARY-SYSTEMHIGH-STRENGTHEQUILIBRIAMOEVOLUTION</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -843,6 +933,21 @@
           <t>73</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Tactile internetRemote surgeryAuthenticationKey agreementSecurity</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>WIRELESS SENSOR NETWORKSKEY AGREEMENT SCHEMEHEALTH-CAREPROTOCOLTHINGSEXCHANGEVERIFICATIONATTACKSLOGIC</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -885,6 +990,21 @@
           <t>24</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Thyroid imaging reporting and data system (TI-RADS)thyroid noduleultrasounddiagnosis</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>LYMPH-NODE DISSECTIONCENTRAL NECK DISSECTIONFINE-NEEDLE-ASPIRATIONSONOGRAPHIC CRITERIAMALIGNANCYMANAGEMENTRISKINCIDENTALOMASPREDICTIONFEATURES</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -927,6 +1047,21 @@
           <t>23</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DiamondTi-related substrateCarbon diffusionCarbonization depthDiffusion model</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -969,6 +1104,21 @@
           <t>68</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Hydrogen embrittlementFatigueTi-10-2-3Hydride formationHydrogen compatibility</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>BETA-TITANIUM-ALLOYENVIRONMENTALLY ASSISTED CRACKINGACCOMMODATED HYDRIDE FORMATIONENHANCED LOCALIZED PLASTICITYMECHANICAL-PROPERTIESEMBRITTLEMENTFRACTUREDEFORMATIONTI-6AL-4VTRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1011,6 +1161,21 @@
           <t>46</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>anatase (V, Ti)O-2cycle stabilityspecific capacityrate performanceLIB anode material</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>TIO2 NANOCRYSTALSTRANSITION-METALFACILE SYNTHESISRATE CAPABILITYANODE MATERIALX-RAYOXIDESNANOPARTICLESNANOSHEETSCOMPOSITE</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1053,6 +1218,21 @@
           <t>36</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Deterministic authenticated encryptionbeyond-birthday-bound securitytweakable block cipherlightweightlow-memory</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1095,6 +1275,21 @@
           <t>46</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>IncidentForensic psychiatryProsecutionMedium security</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>OBSERVATION AGGRESSION SCALEMENTALLY-ILL OFFENDERSPSYCHIATRIC-INPATIENTSSTRUCTURED ASSESSMENTTREATMENT ATTRITIONVIOLENT INCIDENTSNON-COMPLETIONPROSECUTIONRISKUNIT</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1137,6 +1332,21 @@
           <t>52</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>floodingfood securitySouth-Eastern NigeriaRasch analysisSDGs</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1179,6 +1389,21 @@
           <t>22</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SOCSIEMHOTSecurityNGSOC</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1221,6 +1446,21 @@
           <t>47</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Crystallographic textureSolidification and solidification modellingBeta-TiReconstructionsScan strategyTi-6Al-4V</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VARIANT SELECTIONADDITIVE MANUFACTUREPHASE TRANSFORMATIONTITANIUM-ALLOYSALPHA-PHASEBETAMARTENSITEMICROSTRUCTURETEMPERATURECOMPONENTS</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1263,6 +1503,21 @@
           <t>15</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Hardware securityBackside protectionIC securityBackside attacksOptically active layerPhysical attacks</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1305,6 +1560,21 @@
           <t>42</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Ti-6Al-4Vmartensitelaser meltingX-ray diffractionin-situoperando characterization</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>IN-SITUTITANIUM-ALLOYSMARTENSITE</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1347,6 +1617,21 @@
           <t>62</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>maternal healthpeacekeepingsecurity dividendwomen's well-being</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ARMED CONFLICTCAUSAL INFERENCECARE SERVICESWARIMPACTEMPLOYMENT</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1389,6 +1674,21 @@
           <t>19</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Agricultural water supplyFood securityGross domestic productOrganization evolution</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>IRRIGATION INSTITUTIONS</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1431,6 +1731,21 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Spark plasma sinteringReduced graphene oxideTi matrix compositesMechanical propertiesMicrostructure</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>SUPERIOR TENSILE PROPERTIESCARBON NANOTUBESNANOPLATELETSSTRENGTHCONDUCTIVITYFABRICATIONALUMINUMBEHAVIOR</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1473,6 +1788,21 @@
           <t>39</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>COORDINATION POLYMER GELSMETALFRAMEWORKWATERNANOMATERIALSFABRICATION</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1515,6 +1845,21 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>mortgage-backed securitiestotally unpredictable prepayment riskhazard rateindifference valuation</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>UTILITY MAXIMIZATIONDEFAULTMODELS</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1557,6 +1902,21 @@
           <t>49</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Data securityPrivacy regulationsCommunication standardsQuasi-experimentInteroperabilityElectronic medical record</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PROPENSITY SCORERECORDSSYSTEMSMODELS</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1599,6 +1959,21 @@
           <t>46</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Powder metallurgyMulti-layered structureRotary friction weldingLinear friction weldingTitanium alloyMetal matrix composite</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>MECHANICAL-PROPERTIESTITANIUM-ALLOYMETALLURGICAL PROPERTIESJOINTBEHAVIORMICROSTRUCTURESALUMINUM</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1641,6 +2016,21 @@
           <t>18</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>fatiguefatigue limit diagraminfrared thermographylock-in analysisTi-6Al-4V alloy</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>TITANIUM</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1683,6 +2073,21 @@
           <t>33</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Laser metal deposition (LMD)Ti-Ni alloyCoating Composite</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>STAINLESS-STEELCORROSION-RESISTANCECAVITATION EROSIONSURFACEEVOLUTIONTITANIUMPOWDERALUMINUMRUTILEWEAR</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1725,6 +2130,21 @@
           <t>38</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Electrochemical oxidationElectrodialysisReverse osmosis concentrateBoron-doped diamondMixed-metal oxide electrode</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ACTIVE CHLORINEORGANIC-COMPOUNDSANODIC-OXIDATIONWASTE-WATERDEGRADATIONMINERALIZATIONSULFATEIONSPARAMETERSABATEMENT</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1767,6 +2187,21 @@
           <t>60</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>RecidivismConditional releaseForensic psychiatric patientsMental health supervisionMedium security treatment</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>MENTALLY DISORDERED OFFENDERSFORENSIC PATIENTSCONDITIONAL RELEASECRIMINAL RECIDIVISMFOLLOW-UPVIOLENT RECIDIVISMAFTER-DISCHARGENATIONAL COHORTAPPRAISAL-GUIDERISK-ASSESSMENT</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1809,6 +2244,21 @@
           <t>138</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VERBAL PROBABILITY PHRASESINTERGOVERNMENTAL PANELNUMERICAL PROBABILITIESBASE RATEPOLITENESSJUDGMENTCOMMUNICATIONSEVERITYACCURACYREFORM</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1851,6 +2301,21 @@
           <t>15</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>economic securitythreatssustainable developmentregionreal economyindustrymodernization</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1893,6 +2358,21 @@
           <t>35</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Electrochemical oxidationBioassaysHalogenated by-productMicropollutant</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>LC-MS ANALYSISWASTE-WATERBASIC PHARMACEUTICALSANODIC-OXIDATIONCHLORINEELUCIDATIONMECHANISMSTOXICITYPATHWAYSKINETICS</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1935,6 +2415,21 @@
           <t>70</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>aggressionviolencerisk factorsforensicmedium security</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>OBSERVATION AGGRESSION SCALEPREDICTIVE-VALIDITYASSAULTIVE BEHAVIORSTAFFCLASSIFICATIONINTERRATERINSTRUMENTCHECKLISTAPPRAISALACCURACY</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1977,6 +2472,21 @@
           <t>18</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Cumulative yieldsProton beamExcitation functionsCodesPredictive power</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>CROSS-SECTIONSSPALLATIONPROTONSIRON</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2019,6 +2529,21 @@
           <t>33</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>titanium alloysmicrostructuremechanical propertiesmechanical behaviourdeformation ratesdeformation energyballistic tests</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>BALLISTIC IMPACT BEHAVIORBETA-TITANIUM ALLOYSRAPID HEAT-TREATMENTCOMBAT VEHICLESGRAIN-SIZETARGETSTEXTURE</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2061,6 +2586,21 @@
           <t>48</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ATOMIC EMISSION-SPECTROMETRYTRACE-ELEMENTSIMPURITY ELEMENTSMASS-SPECTROMETRYTITANIUMURANIUMEXTRACTIONACTINIDESSAMPLESPRECONCENTRATION</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2103,6 +2643,21 @@
           <t>34</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>judgment and decision makingintelligence analysisdebiasingerror managementcorrective actionorganizational policies</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>FORECASTSACCURACY</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2145,6 +2700,21 @@
           <t>22</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Nuclear securityShielded nuclear materialsCargo container inspectionGamma radiographyActive interrogationRadiography</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>LIGHT-ELEMENTS</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2187,6 +2757,21 @@
           <t>7</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>economic securityinternational economic cooperationeconomic integrationeconomic intereststrade</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2229,6 +2814,21 @@
           <t>31</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>LASERMICROSTRUCTURE</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2271,6 +2871,21 @@
           <t>25</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>frame analysissecuritizationhuman rightscounter-terrorismUnited Kingdom</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2313,6 +2928,21 @@
           <t>31</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Mg-8Sn-1Zn alloytensile propertiestitaniumtin segregation</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>MECHANICAL-PROPERTIESGRAIN-REFINEMENTMAGNESIUM ALLOYMICROSTRUCTUREZNCASTBEHAVIOR</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2355,6 +2985,21 @@
           <t>48</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>CRYSTAL-STRUCTURESPHASE-TRANSITIONTITANIUM METALHIGH PRESSURESZIRCONIUMTRANSFORMATIONTIHAFNIUMSYSTEM</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2397,6 +3042,21 @@
           <t>64</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>hydrodynamicsnuclear reactions, nucleosynthesis, abundancessupernovae: general</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>WEAK-INTERACTION RATESSPECTRAL NEUTRINO TRANSPORTINTERMEDIATE-MASS NUCLEIGAMMA-RAY BURSTSD-SHELL NUCLEIQUASI-EQUILIBRIUMRATE TABLESEXPLOSIVE NUCLEOSYNTHESISSTARSSILICON</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2439,6 +3099,21 @@
           <t>29</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>EXPLOSIVE CRYSTALLIZATIONCOMBUSTIONMECHANISMSPHASE</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2481,6 +3156,21 @@
           <t>27</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ALLOYBEHAVIORPRODUCT</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2523,6 +3213,21 @@
           <t>26</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Additive manufacturingPowder bed fusionTi-6Al-4VDissolvable supports3D printing</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2565,6 +3270,21 @@
           <t>28</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>PhosphorSpray pyrolysisLuminescenceAnti-counterfeiting</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PHOTOLUMINESCENCE PROPERTIESTIO2EU3+NANOPARTICLESMICROSPHERESINTENSITYRATIOSIZE</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2607,6 +3327,21 @@
           <t>47</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PHASE-FIELDGROWTHREDISTRIBUTIONDENUDATIONTRANSITIONSIMULATIONMORPHOLOGY</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2649,6 +3384,21 @@
           <t>69</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>BiOIMOFPhotocatalystTetracycline degradation</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2691,6 +3441,21 @@
           <t>49</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Softening factorWork hardeningPlastic strainTi alloys</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>TI-6AL-4V ALLOYFCC TITANIUMALPHA-PHASESTRAIN-RATEX-RAYMICROSTRUCTUREDEFORMATIONMECHANISMPUREBIOCOMPATIBILITY</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2733,6 +3498,21 @@
           <t>26</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Opportunistic schedulingTransmit antenna selectionMaximal ratio combiningSelection combiningSecrecy outage probability</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>WIRE-TAP CHANNELDIVERSITYSYSTEMSCSI</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2775,6 +3555,21 @@
           <t>77</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TurkeyUN Security CouncilCold WarUNSC non-permanent membership</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>UNITED-NATIONS</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2817,6 +3612,21 @@
           <t>38</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>BETA-PHASE-TRANSFORMATIONIN-SITU OBSERVATIONTEXTURE EVOLUTIONALPHA-PHASEMETALLIC COMPONENTSALLOYLASERSAMPLEHIPPO</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2859,6 +3669,21 @@
           <t>61</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Titanium alloysPrecipitationOmega phaseCompression testOxygen</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>DEFORMATION-BEHAVIORMARTENSITIC-TRANSFORMATIONPHASE-TRANSFORMATIONSTITANIUM ALLOYSNANO-SCALEMECHANICAL-PROPERTIESALPHA-PHASESTRENGTHSUPERELASTICITYINSTABILITIES</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2901,6 +3726,21 @@
           <t>81</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>attachmentLatinxinterventionpromotorasreflective functioning</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ATTACHMENT SECURITYEXPERIENCESCOMMUNITYSCALE</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2943,6 +3783,21 @@
           <t>52</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>RAY-ABSORPTION SPECTROSCOPYBASIS-SETSTRANSITION-METALSCRYSTAL-STRUCTURECOVALENCYTHORIUM(IV)BONDSPSEUDOPOTENTIALSACTINOCENESLANTHANIDE</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2985,6 +3840,21 @@
           <t>48</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>RAY-ABSORPTION SPECTROSCOPYDENSITY-FUNCTIONAL THEORYDONOR LIGANDSOXOVANADIUM(V) COMPLEXESMOLECULAR-STRUCTURECRYSTAL-STRUCTUREELEMENTAL SULFURMIXED OSEREACTIVITY</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3027,6 +3897,21 @@
           <t>74</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>CARBON QUANTUM DOTSMETAL-ORGANIC FRAMEWORKSCOORDINATION POLYMERSFACILE FABRICATIONG-C3N4 NANOSHEETSRESISTANCE GENESMETHYLENE-BLUEWASTE-WATERADSORPTIONPERFORMANCE</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3069,6 +3954,21 @@
           <t>27</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Thin filmsAnnealingConfocal microscopyWetting</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3111,6 +4011,21 @@
           <t>18</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Photon induced cross-sectionGamma strength functionStructural materialEXFORLevel density</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NUCLEAR-REACTIONSDEPENDENCEFISSIONENERGY</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3153,6 +4068,21 @@
           <t>42</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ISOTOPE-SEPARATIONSPECTROSCOPYTRANSMUTATION</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3195,6 +4125,21 @@
           <t>40</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>CdTe crystalHeterostructureSchottky diodeI-V characteristicsReverse currentCharge transportSpace-charge regionX/gamma-ray detectorIsotope emission spectra</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>RECOMBINATIONPERFORMANCEGENERATIONDIODE</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3237,6 +4182,21 @@
           <t>25</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Side-channel attackthreshold implementationDPACPAGIFTTIlightweight cryptographyTVLA</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>LEAKAGE</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3279,6 +4239,21 @@
           <t>15</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>polycultural educationeducational environmentpsychological securityclass teacherpolyethnic competence</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3321,6 +4296,21 @@
           <t>21</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>analysisstatisticaldosimetrythermoluminescentkineticsquality assurance</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>CALIBRATIONFREQUENCYGAMMAFIT</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3363,6 +4353,21 @@
           <t>24</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Mudflat crackingOxide filmFracture toughness</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>BETA TITANIUM-ALLOYSMECHANICAL-PROPERTIESTHIN-FILMSSTRESSESHYDROGENFRACTURESURFACEGROWTHALPHAOXIDE</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3405,6 +4410,21 @@
           <t>36</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>POWDER-METALLURGYMICROSTRUCTURENANOCOMPOSITESTEMPERATURESTRENGTHBEHAVIORSYSTEM</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3447,6 +4467,21 @@
           <t>56</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>XANES SPECTROSCOPYRED LUMINESCENCEPHOSPHORFUNDAMENTALSSULFURSTATEY2O2SMECHANISMSYBER</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3489,6 +4524,21 @@
           <t>50</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>FatigueMicrostructureSurface roughnessSurface laser processingLaser beam powder bed fusion</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>SURFACE-ROUGHNESSBEHAVIORMICROSTRUCTUREOPTIMIZATIONPREDICTIONPARAMETERSDEPOSITIONSTRENGTHELECTRONTENSILE</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3531,6 +4581,21 @@
           <t>59</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>TOTAL-ENERGY CALCULATIONSAUGMENTED-WAVE METHODELECTRONIC-STRUCTUREINORGANIC SCINTILLATORSCRYSTAL-GROWTHBASIS-SETMHFO3 MSPECTRAOXIDEBA</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3573,6 +4638,21 @@
           <t>31</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>MECHANICAL-BEHAVIORDEPOSITIONANISOTROPYTI-6AL-4VABS</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3615,6 +4695,21 @@
           <t>23</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>MicrostructuremodulusstrengthstructuressuperalloystemperaturethermodynamicsXRD</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>SYSTEMMO</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3657,6 +4752,21 @@
           <t>83</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Astrophysical explosive burningExplosive nucleosynthesisCore-collapse supernovae</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>THERMONUCLEAR REACTION-RATESTOTAL CROSS-SECTIONSRAY EMISSION-LINESMASS-LOSSSTARSCASSIOPEIAEVOLUTIONEXPLOSIONELEMENTSYIELDS</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3699,6 +4809,21 @@
           <t>48</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>ResistanceCryptographyReliabilityProtocolsMachine learningAnalytical modelsSemiconductor device measurementPhysical unclonable functionside-channel analysisthreshold implementationmaskingmodelingmachine learning</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ATTACKS</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3741,6 +4866,21 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Security protocolformal analysiswearable device protocolscythertamarin-prover</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>KEY AGREEMENT SCHEMEINTERNETSECURITY</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3783,6 +4923,21 @@
           <t>51</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>TitaniumTitanium nitrideEngineered interfacesComposite materialsNeutron reflectivity</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>IN-SITU NANOINDENTATIONMECHANICAL-PROPERTIESMULTILAYER COATINGSDIFFUSION BARRIERTINBEHAVIORCUTHICKNESSHARDNESSFILM</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3825,6 +4980,21 @@
           <t>74</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>CRYSTAL-STRUCTURESELECTRONIC-STRUCTURETRIVALENT URANIUMCOMPLEXESCHEMISTRYPLUTONIUMCHLORIDEACTINIDECOORDINATIONACTIVATION</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3867,6 +5037,21 @@
           <t>83</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ASSISTED FIELD EVAPORATIONSPATIAL-RESOLUTIONLASERRECONSTRUCTIONTIPFERROELECTRICSBEHAVIOR</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3909,6 +5094,21 @@
           <t>36</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Ti3C2TxMXeneMicrosupercapacitorLaser cuttingFlexible energy storage</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ALL-SOLID-STATEMICRO-SUPERCAPACITOR ARRAYSHIGH-PERFORMANCEMXENES</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3951,6 +5151,21 @@
           <t>41</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>bulk metallic glasstitanium alloyelectroless platingNi coatingplasticity</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>HIGH SPECIFIC STRENGTHP AMORPHOUS FILMSBIOMEDICAL APPLICATIONSMECHANICAL-PROPERTIESCORROSION-RESISTANCERESIDUAL-STRESSFORMING ABILITYSHEAR BANDSENHANCEMENTALLOYS</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3993,6 +5208,21 @@
           <t>65</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>PlasticityAdiabatic shear bandDynamic recrystallizationX-ray diffractionShear compression</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PLASTIC-DEFORMATIONSTRAIN-RATELOCALIZATIONFLOWINSTABILITYMICROSCOPYEVOLUTIONBEHAVIORTI-7ALRANGE</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4035,6 +5265,21 @@
           <t>92</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>IT policy and managementeconomics of ISnetwork economicsenabling technologiessoftwareliabilityzero-day</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PRODUCTS-LIABILITYEFFICIENCYSAFETYECONOMICSPATCH</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4077,6 +5322,21 @@
           <t>63</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>INITIO MOLECULAR-DYNAMICSSINGLE-PHASE TI3ALC2MECHANICAL-PROPERTIESOXIDATION BEHAVIORPOWDER MIXTUREMAX PHASESSOLID-SOLUTIONSTENSILE CREEPTI3SIC2AL</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4161,6 +5421,21 @@
           <t>34</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>X-ray diffractionmechanical propertiesbeta-titanium alloysadditive manufacturingweldingselective laser meltingmetalsheat treatment</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>BETA-TITANIUM-ALLOYBEAM WELDED TI-5AL-5V-5MO-3CRELECTRON-BEAMALPHA-PHASEOMEGA-PHASETI-5553TIPRECIPITATIONDEFORMATIONMETALLURGY</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4245,6 +5520,21 @@
           <t>37</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Large area pressure matrixgaussian microstructuresensitivityunknown object detection</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>TI3C2TXMXENEPERFORMANCERISE</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4287,6 +5577,21 @@
           <t>26</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Doc2vecinvestment universekeyword search10-K reporttheme keywords</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>CLASSIFICATIONPERFORMANCE</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4329,6 +5634,21 @@
           <t>73</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>QUANTUM DOTSPHOTOCATALYTIC PROPERTIESCAPPED CDTEEXPLOSIVESPHOTOLUMINESCENCEREACTIVITY2,4,6-TRINITROPHENOLNANOPARTICLESRECOGNITIONSTABILITY</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4371,6 +5691,21 @@
           <t>48</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Hardware securitymaskinglow-latencynoncompleteness</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>HARDWARE</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4413,6 +5748,21 @@
           <t>42</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Additive manufacturingTextureNeutron diffraction</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>MECHANICAL-PROPERTIESLASERMICROSTRUCTUREEVOLUTIONPARTS</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4455,6 +5805,21 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Ti matrix compositesSiC nanowiresTensile strengthReinforcing mechanism</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>SUPERIOR TENSILE PROPERTIESSILICON-CARBIDECARBON NANOTUBESAGING BEHAVIORGRAPHENESTRENGTHDISPERSIONEVOLUTIONNANORODS</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4497,6 +5862,21 @@
           <t>36</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>cyberforensicsdigital forensicsnuclear power plantinternal attackneural network</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4539,6 +5919,21 @@
           <t>49</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Ti-6Al-4Vadditive manufacturingtexturetransformationin situ EBSD</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ALPHA-PHASE TRANSFORMATIONTEXTURE EVOLUTIONMECHANICAL-PROPERTIESBETA-PHASEMICROSTRUCTURE EVOLUTIONVARIANT SELECTIONCOOLING RATETI-6AL-4VSTEELNUCLEATION</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4581,6 +5976,21 @@
           <t>64</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Risk assessmentstructured professional judgmentHCR-20forensic psychiatryfield validity</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VIOLENCE RISK-ASSESSMENTRANDOMIZED CONTROLLED-TRIALACUTE PSYCHIATRIC-WARDSPREDICTIVE-VALIDITYINTERRATER RELIABILITYVERSION 3ASSESSMENTSMANAGEMENT-20METAANALYSISPERFORMANCE</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4623,6 +6033,21 @@
           <t>35</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>MECHANICAL-PROPERTIESVARIANT SELECTIONTITANIUMMICROSTRUCTUREFATIGUETRANSFORMATIONBEHAVIORMICROTEXTURENUCLEATIONDEPOSITION</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4665,6 +6090,21 @@
           <t>44</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Bulk amorphous materialsPlastic deformationTensile deformation</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>STRAIN GRADIENT PLASTICITYMECHANICAL-PROPERTIESENHANCED PLASTICITYBRIDGMAN SOLIDIFICATIONDUCTILITYMICROSTRUCTUREALLOYSDEFORMATIONTA</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4707,6 +6147,21 @@
           <t>38</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Ferromagnet (FM)Hamiltonianquantum confinementspintronic memorytopological insulator (TI)</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>SPIN-ORBIT TORQUEFILMSELECTRONSBI2SE3BI2TE3</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4749,6 +6204,21 @@
           <t>63</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>IoT securityCPS securityRemote attestationAuthenticationEmbedded securityPhysically unclonable function (PUF)</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>SOFTWARE-BASED ATTESTATION</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4791,6 +6261,21 @@
           <t>37</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>chaosenergy consumptionS-Boxsecuritywireless sensor network</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>BLOCK CIPHER</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4875,6 +6360,21 @@
           <t>36</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>CE NANO-ADSORBENTDRINKING-WATERAQUEOUS-SOLUTIONADSORPTION MECHANISMOXIDENANOPARTICLESGROUNDWATERGRANULATION</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4917,6 +6417,21 @@
           <t>32</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>POWDER DIFFRACTIONCSALSI2O6-CSTISI2O6.5 JOINPHASE-TRANSITIONSTHERMOCHEMISTRYENERGETICSFRESNOITEZEOLITESBACSTITANOSILICATES</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4959,6 +6474,21 @@
           <t>30</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Layered structureTitanium alloyMetal-matrix composite (MMC)TiBTiCBlended elemental powder metallurgy (BEPM)Armor</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>MATRIX COMPOSITESTITANIUM</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5001,6 +6531,21 @@
           <t>33</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Compton gamma imagingRadiation detectionTomographyRadiological security</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>AIR DOSE-RATESURVEY SYSTEMJAPAN</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5043,6 +6588,21 @@
           <t>58</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Ti matrix compositesGraphene oxides nanosheetsMechanical propertiesStrengthening mechanism</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>CARBON NANOTUBETHERMAL-CONDUCTIVITYMICROSTRUCTUREINTERFACEGRAPHITEROUTENANOCOMPOSITESCARBIDEALLOY</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5085,6 +6645,21 @@
           <t>11</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Russian Federation Constitutiondirect action of ConstitutionConstitutional Courtlegal properties of Constitutionlegal activitiesprotection of Constitutionsystem of ensuring direct action of Constitution</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5127,6 +6702,21 @@
           <t>22</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>First wall materialsLevel density parameterTALYS 18Relative variance analysis</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>EXCITATION-FUNCTIONSPRODUCTION ROUTESMODELSDEPENDENCETHRESHOLDNUCLEIENERGY</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5169,6 +6759,21 @@
           <t>21</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>RRAMvariabilityPUFhardware security</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PHYSICAL UNCLONABLE FUNCTIONSRANDOM-ACCESS MEMORY</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5211,6 +6816,21 @@
           <t>45</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>X-RAY-DIFFRACTIONINDUCED PHASE-TRANSFORMATIONRARE-EARTH TITANATESRAMAN-SPECTROSCOPYFLUORITE STRUCTURECOMPLEX OXIDESRE2TI2O7 REDISORDERGDCONDUCTIVITY</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5253,6 +6873,21 @@
           <t>44</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>GRAIN-BOUNDARY ALPHAVARIANT SELECTIONTITANIUMMODELNUCLEATIONPREDICTIONEVOLUTIONALLOYSGROWTH</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5295,6 +6930,21 @@
           <t>30</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Ti-Al-C materialsVacuum-arc depositionOxidation resistanceElectrical conductivityLocal chemical compositionPhase composition</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>SOFCBEHAVIORALTIMECHANISMCELL</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5337,6 +6987,21 @@
           <t>109</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Leader-Member Exchange (LMX)Perceived Organisational Support (POS)Psychological Stress (PS)Turnover Intention (TI)Police OrganisationUnited Arab Emirates (UAE)</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PERCEIVED ORGANIZATIONAL SUPPORTLEADER-MEMBER EXCHANGEWORK-FAMILY CONFLICTQUALITY-OF-LIFESOCIAL-EXCHANGEJOB-SATISFACTIONMEDIATING ROLEOUTCOMES RELATIONSHIPSCITIZENSHIP BEHAVIORAFFECTIVE COMMITMENT</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5379,6 +7044,21 @@
           <t>37</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>COUPLED CHEMICAL-REACTIONSMAGNESIUM ALLOY AZ31BINTERFACE DEFECTSSINGLE-CRYSTALMETALSDISLOCATIONSDISCONNECTIONSDISPLACEMENTSSIMULATIONSALGORITHMS</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5421,6 +7101,21 @@
           <t>65</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Additive manufacturingTi-6Al-4VStatistical analysisSurface roughness parameterFatigue prediction</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>MECHANICAL-PROPERTIESMETALLIC COMPONENTSLASERTI-6AL-4VTITANIUMTENSILEDEPOSITIONTI-6A1-4VSTRENGTHDEFECTS</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5463,6 +7158,21 @@
           <t>49</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>effect of annealingconditions for inducing strainTi(50)Pd(40)Ni(10)alloyhigh-temperature shape-memory effectbardifferential thermal analysismechanical characteristicsthermomechanical characteristics</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5505,6 +7215,21 @@
           <t>10</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Selective laser meltingFinite element methodStress distributionTemperature gradientCrack</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>POWDER BEDTEMPERATUREMICROSTRUCTUREBEHAVIORMETALLAYERSHEATSLM</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5547,6 +7272,21 @@
           <t>109</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>GROUP DECISION-MAKINGJUDGMENT ACCURACYACCOUNTABILITYPROBABILITYUNCERTAINTYCOHERENCEINFERENCEFORECASTSIMPACT</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5589,6 +7329,21 @@
           <t>52</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Facebookinformation privacythreat appraisaltheory of planned behaviourinformation security awarenessnormsprotection motivation theory</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>PROTECTION MOTIVATION THEORYSECURITY AWARENESSPLANNED BEHAVIORSUBJECTIVE NORMSSOCIAL NORMSFEAR APPEALSINFORMATIONDISCLOSUREMATTERS</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5631,6 +7386,21 @@
           <t>36</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Titanium alloysTi-6Al-4VFractureFailureLocalizationAnisotropyViscoplasticityVoid evolutionThermomechanicalRegularizationNonlocalitySurface elements</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>STRAIN-LOCALIZATIONDUCTILE FRACTUREDEFORMATIONPLASTICITYFORMULATIONSTI-6AL-4VFAILUREMETALS</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5673,6 +7443,21 @@
           <t>13</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>AuthenticationPrivacyEPCRFIDSecurity</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>PRIVACY</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5757,6 +7542,21 @@
           <t>34</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Compressive sensing (CS)cyber-physical systemssmart grids (SGs)sparse recoverytopology identification (TI) and fault detection</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>LINE OUTAGE DETECTION</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5799,6 +7599,21 @@
           <t>37</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>PARTICLE COMBUSTIONOPTICAL PYROMETRYPHASETITANIUMAIR</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5841,6 +7656,21 @@
           <t>24</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>electrochromismreflectance devicesTiO2 nanotubesWO3 nanostructuresTi anodizationWO3 electrodepostion</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>TIO2 NANOTUBE ARRAYSWO3DETACHMENTFILMSGROWTH</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5883,6 +7713,21 @@
           <t>51</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Smart CitiesQuality of LifeInternet of Things (IoT)Palava Smart CityAtlas-ti</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>WORKDEFINITIONINTERNET</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5925,6 +7770,21 @@
           <t>37</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>ELECTROCHEMICAL DEGRADATIONMODEL DIMERSRANEY-NICKELELECTRODESPRODUCTSVANILLINETHANOL</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5967,6 +7827,21 @@
           <t>72</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>lightweight block cipherssensorsbenchmarks</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>WEAK-KEY CLASSESCRYPTANALYSISATTACKSECURITYHIGHTMIBS</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6009,6 +7884,21 @@
           <t>26</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>deformation energydeformation ratelayered structuresmechanical propertiesmetal matrix compositethree-point flexural testtitanium</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>TI-TIB COMPOSITESMATRIX COMPOSITESMICROSTRUCTUREALLOYSTI-6AL-4V</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6051,6 +7941,21 @@
           <t>32</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>HollanditeAmorphizationRadiation damage</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NUCLEAR-WASTEELECTRON-IRRADIATIONRADIATIONIMMOBILIZATIONCERAMICSSYNROCCESIUMDAMAGEMINERALSFORMS</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6093,6 +7998,21 @@
           <t>48</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>GRAIN-REFINEMENTMECHANICAL-PROPERTIESTIALSI INTERMETALLICSTENSILE PROPERTIESALUMINUMAL3TIMICROSTRUCTURECOMPOSITESBEHAVIORSURFACE</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6135,6 +8055,21 @@
           <t>33</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>gamma rays: generalnuclear reactions, nucleosynthesis, abundancessupernovae: general</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>THERMONUCLEAR REACTION-RATESMASSIVE STARSSOLAR METALLICITYNUCLEOSYNTHESISEVOLUTIONUNCERTAINTIESABUNDANCESEXPLOSIONSELEMENTSNUCLEI</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6177,6 +8112,21 @@
           <t>46</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Physical layer securitymultiple-input multiple-output (MIMO)interferencewiretap channelbeamformer</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>PHYSICAL-LAYER SECURITYWIRE-TAP CHANNELFADING CHANNELSARTIFICIAL-NOISEINTELLIGENT TRANSPORTATIONCONFIDENTIAL MESSAGESPOWER ALLOCATIONRELAY SELECTIONNETWORKSTRANSMISSION</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6219,6 +8169,21 @@
           <t>19</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Ag-In bondingbarrier layerbismuth telluridechemical reaction bondingfluxless bondingthermoelectricTi/Au</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6261,6 +8226,21 @@
           <t>53</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Internet of ThingsDeep learningPhishingArtificial intelligenceSatellite ground stationsAirgroundInternet of Things (IoT)spacethreat intelligenceand Sea (SAGS) networksdeep learning</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>IOTRANSOMWARESYSTEMEDGE</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6303,6 +8283,21 @@
           <t>34</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Selective laser meltingTitanium matrix compositeMesoscopic simulationSurface morphologyThermodynamics</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>MICROSTRUCTURE EVOLUTIONALLOYSDENSIFICATIONREINFORCEMENTPERFORMANCEMECHANISM</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6345,6 +8340,21 @@
           <t>47</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>LightweightBlock CiphersSide-channelsThreshold ImplementationCellular AutomataOptimal S-Box</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6387,6 +8397,21 @@
           <t>37</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>software-defined networking (SDN)UDP flooding attacknetwork security</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6429,6 +8454,21 @@
           <t>52</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>inorganic scintillatorskinetic Monte Carlononlinear quenchingnon-proportionalityscintillation mechanisms</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>FAST INTRINSIC LUMINESCENCEGAMMA-RAY INTERACTIONELECTRON-HOLE PAIRSNON-PROPORTIONALITYALKALI HALIDESTEMPERATURE-DEPENDENCEENERGY RESOLUTIONLIGHT YIELDVK CENTERSPURE CSI</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6471,6 +8511,21 @@
           <t>52</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>CompaniesMonitoringOptical character recognition softwareLicensesVirtual private networksSemanticsIP networksInformation securityartificial neural networkmulti-layer perceptronbinary classificationdata loss preventiontitle insurance</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>LEACH-BLILEY ACTCLASSIFICATIONPREDICTIONFTC</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6513,6 +8568,21 @@
           <t>222</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>5G mobile communicationWireless communicationReliabilityCommunication system securityInternet of ThingsHaptic interfacesTactile internetIoT5Gbeyond 5Ghaptic communicationsaugmented reality (AR)virtual reality (VR)ultra-reliable and low-latency communications (URLLC)</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>MACHINE-TYPE COMMUNICATIONSINTERCONNECTED VIRTUAL-REALITYLOW-LATENCY COMMUNICATIONSHAPTIC DATARANDOM-ACCESSRESOURCE-ALLOCATIONWIRELESS NETWORKSBILATERAL CONTROLMULTIPLE-ACCESSDATA ANALYTICS</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6555,6 +8625,21 @@
           <t>27</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Additive manufacturingPowder denudationLaser material processingEntrainment modeling</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>DYNAMICS</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6597,6 +8682,21 @@
           <t>147</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>critical infrastructurescybersecurityinformation sharingISACpower systemssituation awarenesstestingthreat intelligence</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>COLLABORATIVE INTRUSION DETECTIONCYBER SECURITYSITUATIONAL AWARENESSELECTRONIC MAILINFORMATIONCHALLENGESEXCHANGEARCHITECTUREMANAGEMENTFRAMEWORK</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6639,6 +8739,21 @@
           <t>24</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Fe2O3 PrecipitateBiFeO3 Thin FilmAberration-Corrected Scanning Transmission Electron MicroscopyHigh-Angle Annular Dark Field Imaging</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>MAGNETIC-PROPERTIESBISMUTH FERRITETRANSITIONCERAMICS</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6681,6 +8796,21 @@
           <t>44</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Side-channel analysisMaskingThreshold ImplementationSbox</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>THRESHOLD IMPLEMENTATIONSBLOCK ENCRYPTION</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6723,6 +8853,21 @@
           <t>97</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>PERSON-ORGANIZATION FITOPEN-MINDED THINKINGBIAS BLIND SPOTNORMATIVE COMMITMENT5-FACTOR MODELSERVICE ORIENTATIONJOB-SATISFACTIONVALUE CONGRUENCEPERFORMANCEANTECEDENTS</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6765,6 +8910,21 @@
           <t>118</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Technical threat intelligenceIndicators of compromise (IOC)MalwareTrustReputationOntologiesCyber crimePreventative strategiesRisk analysisThreat sharing</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6805,6 +8965,21 @@
       <c r="H151" t="inlineStr">
         <is>
           <t>46</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Code-division multiple-access (CDMA)physical layer security (PLS)signature designsignal-to-interference-plus-noise ratio (SINR)wiretap channel</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>PHYSICAL-LAYER SECURITYWIRE-TAP CHANNELSECRECY CAPACITYINTELLIGENT TRANSPORTATIONCONFIDENTIAL MESSAGESFADING CHANNELSOPTIMIZATIONCSI</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/DatosInvestigacion.xlsx
+++ b/DatosInvestigacion.xlsx
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4947,37 +4947,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Quantifying Compositional Homogeneity in Pb(Zr,Ti)O-3 Using Atom Probe Tomography</t>
+          <t>Synthesis and Structure of (Ph4P)(2)MCl6 (M = Ti, Zr, Hf, Th, U, Np, Pu)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>May21</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Kirchhofer, R; Diercks, DR; (...); Brennecka, GL</t>
+          <t>Minasian, SG; Boland, KS; (...); Shuh, DK</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>JOURNAL OF THE AMERICAN CERAMIC SOCIETY</t>
+          <t>INORGANIC CHEMISTRY</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5004,37 +5004,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Synthesis and Structure of (Ph4P)(2)MCl6 (M = Ti, Zr, Hf, Th, U, Np, Pu)</t>
+          <t>Quantifying Compositional Homogeneity in Pb(Zr,Ti)O-3 Using Atom Probe Tomography</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>May21</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Minasian, SG; Boland, KS; (...); Shuh, DK</t>
+          <t>Kirchhofer, R; Diercks, DR; (...); Brennecka, GL</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>INORGANIC CHEMISTRY</t>
+          <t>JOURNAL OF THE AMERICAN CERAMIC SOCIETY</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
